--- a/static/generated_files/pierre/price_list_with_selling_prices.xlsx
+++ b/static/generated_files/pierre/price_list_with_selling_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:R74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,77 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>CW</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Power(W)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Colour</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Design</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Length</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Width</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Height</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Pcs Pal</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Pcs ctn</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>price_label_1</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>price_label_2</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>price_label_3</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>price_label_4</t>
         </is>
       </c>
     </row>
@@ -463,15 +533,89 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AVANCIS</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AVANCIS POWERMAX SKALA 130W Green 4002</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>JAM72D42-630-LB</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2024-03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Bifacial</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2 465</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0.124</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0.130</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0.132</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0.136</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -486,12 +630,82 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LR5-66HTH-530M</t>
+          <t>LR5-54HTD-430M Bifacial</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>4 680</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Bifacial</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0.133</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0.139</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0.141</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.145</t>
         </is>
       </c>
     </row>
@@ -508,12 +722,82 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LR5-66HTH-525W</t>
+          <t>LR5-54HTB-435M</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Full Black</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0.143</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0.149</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0.152</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.155</t>
         </is>
       </c>
     </row>
@@ -530,12 +814,82 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LR5-66HPH-505M</t>
+          <t>LONGI LR5-72HGD-575W</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Bifacial</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2 278</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0.128</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.133</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0.136</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.139</t>
         </is>
       </c>
     </row>
@@ -552,12 +906,82 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LR5-54HTH-440M</t>
+          <t>LONGI LR5-72HGD-565W Bifacial</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>2 160</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Bifacial</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2 278</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0.134</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.140</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0.142</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0.146</t>
         </is>
       </c>
     </row>
@@ -574,12 +998,82 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LR5-54HTH-435M</t>
+          <t>LONGI LR5-72HGD-560W Bifacial</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>10 080</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Bifacial</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2 278</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0.134</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.140</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0.142</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.146</t>
         </is>
       </c>
     </row>
@@ -591,17 +1085,87 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LONGI</t>
+          <t>JINKO</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LR5-54HTH-420M</t>
+          <t>JINKO-JKM625N-78HL4-BDV Bifacial Ntype / SF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>1 728</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2024-05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Bifacial</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2 465</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0.143</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0.149</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0.152</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0.156</t>
         </is>
       </c>
     </row>
@@ -618,12 +1182,82 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LR5-54HTB-435M</t>
+          <t>LR5-54HTD-435M Bifacial</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>4 680</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Bifacial</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>936</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0.136</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0.142</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0.145</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0.149</t>
         </is>
       </c>
     </row>
@@ -635,17 +1269,87 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LONGI</t>
+          <t>JINKO</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LR5-54HPH-415M</t>
+          <t>JINKO-JKM585N-72HL4-BDV Bifacial Ntype / SF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>2 160</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2024-05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Bifacial</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2 278</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0.143</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.149</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0.152</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0.156</t>
         </is>
       </c>
     </row>
@@ -657,17 +1361,87 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LONGI</t>
+          <t>JINKO</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LR5-54HIH-410M</t>
+          <t>JINKO JKM585N-72HL4 TIGER NEO N-TYPE / SF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>1 240</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2 278</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0.127</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0.132</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0.135</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0.138</t>
         </is>
       </c>
     </row>
@@ -684,12 +1458,82 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>JINKO Tiger Neo 72HL4-(V) 575W</t>
+          <t>JINKO JKM480N-60HL4 Black Frame / TIGER NEO N-TYPE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>4 320</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1 906</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>864</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0.127</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.132</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0.135</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0.138</t>
         </is>
       </c>
     </row>
@@ -701,17 +1545,87 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>JINKO</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>JAM78S30-585/MR</t>
+          <t>JINKO JKM450N-54HL4 Black Frame / TIGER NEO N-TYPE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>4 680</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>1 762</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0.127</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0.132</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0.135</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0.138</t>
         </is>
       </c>
     </row>
@@ -723,17 +1637,87 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>JINKO</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>JAM72S30-545/MR</t>
+          <t>JINKO JKM445N-54HL4 Black Frame / TIGER NEO N-TYPE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>4 680</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1 762</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0.127</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0.132</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0.135</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>0.138</t>
         </is>
       </c>
     </row>
@@ -745,15 +1729,89 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>JINKO</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>JAM72S30-545-MR-SF 35MM</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>JINKO JKM435N-54HL4R-BDV Tiger NEO N-TYPE / BF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2 700</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2024-04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Bifacial</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>1 762</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0.140</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0.146</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0.149</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>0.152</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -763,17 +1821,87 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>JINKO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>JAM72S20-460-MR</t>
+          <t>JINKO JKM430N-54HL4R-BDV Tiger NEO N-TYPE / BF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>4 680</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2024-04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Bifacial</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>1 762</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0.143</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0.149</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0.152</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>0.156</t>
         </is>
       </c>
     </row>
@@ -785,17 +1913,87 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>JINKO</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>JAM72D40-585-MB</t>
+          <t>JINKO-JKM580N-72HL4-BDV Bifacial Ntype / SF</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>3 600</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2024-05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Bifacial</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2 278</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
           <t>720</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>0.132</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0.138</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0.140</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>0.144</t>
         </is>
       </c>
     </row>
@@ -812,12 +2010,82 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>LR5-72HBD-550M</t>
+          <t>LR5-54HTH-440M</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>1 872</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>0.134</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0.140</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>0.143</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>0.146</t>
         </is>
       </c>
     </row>
@@ -829,17 +2097,87 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>LONGI</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>JAM72D40-580-MB</t>
+          <t>LR5-66HTH-520W</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>2 728</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2 094</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>0.134</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>0.140</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>0.142</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>0.146</t>
         </is>
       </c>
     </row>
@@ -856,12 +2194,82 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LR5-72HTH-570M</t>
+          <t>LR5-66HTH-525W</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>4 774</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2 094</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>0.134</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0.140</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>0.142</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>0.146</t>
         </is>
       </c>
     </row>
@@ -873,17 +2281,87 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SUNMAN</t>
+          <t>TRINA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SUNMAN_SMF430F</t>
+          <t>TRINA_NEG9RC.27 n type 430 I-Topcon Bifacial DualG</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1 320</t>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Double glass</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1 762</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>0.148</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>0.155</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>0.158</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>0.162</t>
         </is>
       </c>
     </row>
@@ -900,12 +2378,82 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>TRINA_TSM-550DE19</t>
+          <t>TRINA_NEG9R.28 n type 455 I-Topcon DualGlass</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>24 336</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Double glass</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>1 762</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>0.147</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>0.154</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>0.157</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>0.161</t>
         </is>
       </c>
     </row>
@@ -922,12 +2470,82 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TRINA_NEG9RC.27 n type 435 I-Topcon Bifacial DualG</t>
+          <t>TRINA_NEG9R.28 n type 450 I-Topcon DualGlass</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>59 904</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Double glass</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>1 762</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
           <t>936</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>0.145</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>0.152</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>0.154</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>0.158</t>
         </is>
       </c>
     </row>
@@ -944,12 +2562,82 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>TRINA_NEG9R.28_435W_DUALGLASS</t>
+          <t>TRINA_NEG9R.28 n type 445 I-Topcon DualGlass</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>30 888</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Double glass</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>1 762</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
           <t>936</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>0.142</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>0.148</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>0.151</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>0.155</t>
         </is>
       </c>
     </row>
@@ -966,12 +2654,82 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>TRINA_NEG9R.28_430W_DUALGLASS</t>
+          <t>TRINA_NEG9R.28 n type 440 I-Topcon DualGlass</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>936</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Double glass</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>1 762</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>0.134</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>0.140</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>0.143</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>0.146</t>
         </is>
       </c>
     </row>
@@ -988,12 +2746,82 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>TRINA_NEG9R.28 n type 450 I-Topcon DualGlass</t>
+          <t>TRINA_NEG9R.25_445W Full black</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>3 744</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2024-08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Full Black</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>1 762</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
           <t>936</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>0.145</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>0.152</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>0.154</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>0.158</t>
         </is>
       </c>
     </row>
@@ -1010,12 +2838,82 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>TRINA_NEG9R.28 n type 445 I-Topcon DualGlass</t>
+          <t>TRINA_NEG9R.25_440W Full black</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>3 744</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Full Black</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>1 762</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
           <t>936</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>0.142</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>0.148</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>0.151</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>0.155</t>
         </is>
       </c>
     </row>
@@ -1032,12 +2930,82 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>TRINA_DEG09R.08_420W_DUALGLASS</t>
+          <t>TRINA_NEG9R.25_435W Full black</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>7 488</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Full Black</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>1 762</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
           <t>936</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>0.139</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>0.145</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>0.147</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>0.151</t>
         </is>
       </c>
     </row>
@@ -1054,12 +3022,82 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>TRINA_DE09R.08_430W</t>
+          <t>TRINA_NEG18R.28_505W-DUALGLASS_BF</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>1 728</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Double glass</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>1 961</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>864</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>0.136</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0.143</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>0.145</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>0.149</t>
         </is>
       </c>
     </row>
@@ -1076,12 +3114,82 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>TRINA_DE09R.08_425W</t>
+          <t>TRINA_NEG18R.28_500W-DUALGLASS_BF</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>6 912</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Double glass</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>1 961</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>864</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>0.133</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>0.139</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>0.142</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>0.145</t>
         </is>
       </c>
     </row>
@@ -1098,12 +3206,82 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>TRINA_DE09R.08W_415W</t>
+          <t>TRINA_NEG18R.28_495W-DUALGLASS_BF</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>1 728</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Double glass</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>1 961</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>864</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>0.130</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>0.136</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>0.138</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>0.142</t>
         </is>
       </c>
     </row>
@@ -1115,17 +3293,87 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TRINA</t>
+          <t>RENESOLA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>TRINA_DE09R.05_415W_Full black</t>
+          <t>RS3-450M-E3</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2024-03</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>1 038</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>2 094</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>0.154</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>0.161</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>0.164</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>0.168</t>
         </is>
       </c>
     </row>
@@ -1137,17 +3385,87 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TONGWEI</t>
+          <t>LONGI</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>TW-410W MAP-108-H-S BF</t>
+          <t>LR5-72HTH-585M</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>4 960</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>2 278</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>0.134</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>0.140</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>0.142</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>0.146</t>
         </is>
       </c>
     </row>
@@ -1159,17 +3477,87 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TONGWEI</t>
+          <t>LONGI</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>TW-400W- MAP-108-H-FULL BLACK</t>
+          <t>LR5-72HTH-580M</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>6 200</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>2 278</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>0.134</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>0.140</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>0.142</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>0.146</t>
         </is>
       </c>
     </row>
@@ -1181,17 +3569,87 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SUNPORT</t>
+          <t>LONGI</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SUNPORT SPP380QHES</t>
+          <t>LR5-72HTH-575M</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1 104</t>
+          <t>3 720</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>2 278</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>0.134</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>0.140</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>0.142</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>0.146</t>
         </is>
       </c>
     </row>
@@ -1203,17 +3661,87 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SUNPORT</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SUNPORT SPP375QHES-B</t>
+          <t>JAM72S30-550/MR SF</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1 104</t>
+          <t>12 960</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>2 279</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>0.116</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>0.121</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>0.123</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>0.126</t>
         </is>
       </c>
     </row>
@@ -1225,17 +3753,87 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>LONGI</t>
+          <t>TRINA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>LR5-72HTH-575M</t>
+          <t>TRINA_NEG9RC.27 n type 435 I-Topcon Bifacial DualG</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>21 528</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Bifacial</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>1 762</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>0.148</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>0.155</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>0.158</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>0.162</t>
         </is>
       </c>
     </row>
@@ -1247,17 +3845,87 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>TRINA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>JAM72D40-575-MB</t>
+          <t>TRINA_NEG9RC.27 n type 440 I-Topcon Bifacial DualG</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>20 376</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Bifacial</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>1 762</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>0.151</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>0.158</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>0.160</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>0.164</t>
         </is>
       </c>
     </row>
@@ -1274,12 +3942,82 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>JAM72D30-550-MB-SF</t>
+          <t>JAM72D40-585-MB</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>15 840</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2024-05</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Bifacial</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>2 278</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
           <t>720</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>0.128</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>0.134</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>0.136</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>0.140</t>
         </is>
       </c>
     </row>
@@ -1291,17 +4029,83 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>ASTROENERGY</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>JAM72D30-545-MB-SF</t>
+          <t>CHSM54M-HC-395W</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2024-04</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>1 708</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>1 133</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>0.099</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>0.103</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>0.105</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>0.108</t>
         </is>
       </c>
     </row>
@@ -1313,17 +4117,79 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CANADIAN</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CS6R-410 SF</t>
+          <t>AVANCIS SKALA 135W 7004 Light Blue</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2024-03</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Frameless Full Light blue (7004)</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>1 587</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>2.119</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>2.215</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>2.253</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>2.311</t>
         </is>
       </c>
     </row>
@@ -1335,17 +4201,75 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CANADIAN</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CS6L-455MS_BF</t>
+          <t>AVANCIS SKALA B001 140W Black</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2024-03</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>1 587</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>1.493</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>1.561</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>1.588</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>1.629</t>
         </is>
       </c>
     </row>
@@ -1357,15 +4281,89 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>AVANCIS</t>
+          <t>CANADIAN</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>AVANCIS SKALA G002 130W Grey</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+          <t>CS6L-455MS_BF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>840</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>1 903</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>840</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>0.116</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>0.121</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>0.123</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>0.126</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1375,15 +4373,89 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>AVANCIS</t>
+          <t>CANADIAN</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>AVANCIS SKALA B001 140W Black</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+          <t>CS6L-460MS_BF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>1 903</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>840</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>0.122</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>0.128</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>0.130</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>0.133</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1393,15 +4465,89 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>AVANCIS</t>
+          <t>CANADIAN</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>AVANCIS SKALA 70W G001</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+          <t>Canadian CS6.1-54TD-460 BF n type topcon</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1 680</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2024-08</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>1 800</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>840</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>0.127</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>0.132</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>0.135</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>0.138</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1411,15 +4557,89 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>AVANCIS</t>
+          <t>CANADIAN</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>AVANCIS SKALA 140W</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+          <t>Canadian CS6.1-54TD-465 BF n type topcon</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>840</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2024-08</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>1 800</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>840</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>0.127</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>0.132</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>0.135</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>0.138</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1429,15 +4649,89 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>AVANCIS</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>AVANCIS SKALA 135W G001 Anthracite</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+          <t>JAM54D40-425-GB-BF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2024-02</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Double glass</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>0.127</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>0.132</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>0.135</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>0.138</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1447,15 +4741,89 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>AVANCIS</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>AVANCIS SKALA 135W 7002 Dark Blue</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>JAM72D40-590-LB</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>13 536</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Bifacial</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>2 333</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>0.128</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>0.134</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>0.136</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>0.140</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1465,15 +4833,89 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>AVANCIS</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>AVANCIS SKALA 130W B</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t>JAM54D40-440-GB-BF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4 680</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Double glass</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>0.124</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>0.130</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>0.132</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>0.136</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1483,15 +4925,89 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>AVANCIS</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>AVANCIS SKALA 130W</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+          <t>JAM54D40-445-LB-BF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>18 720</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2024-05</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Double glass</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>1 762</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>0.124</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>0.130</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>0.132</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>0.136</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1501,15 +5017,89 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>AVANCIS</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>AVANCIS SKALA 125W</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>JAM54D41-435-GB-ALL BLACK</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2 628</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Full Black</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Double glass</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>0.135</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>0.141</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>0.144</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>0.148</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1519,15 +5109,89 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>AVANCIS</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>AVANCIS SKALA 120W 3002 Gold</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
+          <t>JAM54D40-435-LB-BF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4 680</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Double glass</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>0.134</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>0.140</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>0.143</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>0.146</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1537,15 +5201,89 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>AVANCIS</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>AVANCIS SKALA 115W</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>JAM54D41-440-LB-ALL BLACK</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>9 648</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Full Black</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Double glass</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>1 762</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>0.130</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>0.136</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>0.138</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>0.142</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1555,15 +5293,89 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>AVANCIS</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>AVANCIS SKALA 100W 1202 RED</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+          <t>JAM72D40-580-MB</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>12 240</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2024-04</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Bifacial</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>2 278</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>0.128</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>0.134</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>0.136</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>0.140</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1573,15 +5385,89 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>AVANCIS</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>AVANCIS POWERMAX SKALA 150W B901</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+          <t>JAM54D41-435-LB-ALL BLACK</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>17 784</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2024-05</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Full Black</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Double glass</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>1 762</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>0.135</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>0.141</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>0.144</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>0.148</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1591,17 +5477,87 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CANADIAN</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CS6R-415 BF</t>
+          <t>JAM72D30-560-LB</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2024-03</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Double glass</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>1 052</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>2 117</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>0.116</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>0.121</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>0.123</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>0.126</t>
         </is>
       </c>
     </row>
@@ -1613,17 +5569,87 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CANADIAN</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CS7L-595MS</t>
+          <t>JAM72D30-550-MB-SF</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>11 520</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Double glass</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>1 052</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>2 117</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>0.127</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>0.132</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>0.135</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>0.138</t>
         </is>
       </c>
     </row>
@@ -1635,17 +5661,87 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CANADIAN</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CS7N-665MS</t>
+          <t>JAM72D30-545-MB-SF</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>5 760</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2024-04</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Double glass</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>1 052</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>2 117</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>0.127</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>0.132</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>0.135</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>0.138</t>
         </is>
       </c>
     </row>
@@ -1657,17 +5753,87 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CANADIAN</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Canadian CS6R-440T n type topcon</t>
+          <t>JAM72D40-580-GB</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>10 692</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Bifacial</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>2 278</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>0.128</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>0.134</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>0.136</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>0.140</t>
         </is>
       </c>
     </row>
@@ -1684,12 +5850,82 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>JAM72D30-540-MB-SF</t>
+          <t>JAM60S20-385-MR-BF</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2024-05</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>1 052</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>1 769</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>806</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>0.121</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>0.127</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>0.129</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>0.132</t>
         </is>
       </c>
     </row>
@@ -1706,12 +5942,82 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>JAM66S30-505-MR BF</t>
+          <t>JAM54S31-405-MR-ALLBLACK</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>17 784</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2024-02</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Full Black</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>0.118</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>0.123</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>0.125</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>0.128</t>
         </is>
       </c>
     </row>
@@ -1728,12 +6034,82 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>JAM60S20-385-MR-BF [NEW]</t>
+          <t>JAM54S30-420-LR-BF</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>1 872</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2024-02</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>1 762</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>0.116</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>0.121</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>0.123</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>0.126</t>
         </is>
       </c>
     </row>
@@ -1750,12 +6126,82 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>JAM60S20-385-MR-BF</t>
+          <t>JAM54S30-420-GR-BF</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>626</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2024-02</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>0.113</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>0.118</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>0.124</t>
         </is>
       </c>
     </row>
@@ -1772,12 +6218,82 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>JAM54S31-410-MR-ALLBLACK</t>
+          <t>JAM54S30-415-MR-BF</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
+          <t>8 964</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2024-02</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
           <t>936</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>0.113</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>0.118</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>0.124</t>
         </is>
       </c>
     </row>
@@ -1794,276 +6310,650 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>JAM54S31-405-MR-ALLBLACK</t>
+          <t>JAM66S30-505-MR BF</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>10 499</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2024-05</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>2 093</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>0.116</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>0.121</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>0.123</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>0.126</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Panels</t>
+          <t>Inverters</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>SUNGROW</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>JAM54S30-425-LR-BF</t>
+          <t>SH10T</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>1 894</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>1 962</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>2 047</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>2 132</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Panels</t>
+          <t>Batteries</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TRINA</t>
+          <t>SUNGROW</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>TRINA_TSM-555DE19</t>
+          <t>Sungrow SBR Battery module 3,2 kWh</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>1 094</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>1 183</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>1 232</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Panels</t>
+          <t>Batteries</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>SUNGROW</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>JAM54S30-420-GR-BF</t>
+          <t>Sungrow SBR Base + BMS</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>412</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Panels</t>
+          <t>EV Chargers</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>SUNGROW</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>JAM54S30-415-GR-BF</t>
+          <t>Sungrow_11kW AC charger AC011E-01</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>56</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Panels</t>
+          <t>Accessories</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>SUNGROW</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>JAM54S30-410-MR-SF</t>
+          <t>LOGGER1000B</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>505</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Panels</t>
+          <t>Constructions</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>MOUNTING</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>JAM54S30-405-MR-BF</t>
+          <t>End Clamp 30-40mm Steel</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2024-05</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>42</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Panels</t>
+          <t>Air Conditions</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>HISENSE</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>JAM54D40-445-LB-BF</t>
+          <t>AVY-07UXJSJA + panel, HISENSE</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2024-04</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>527</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Panels</t>
+          <t>Air Conditions</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>HISENSE</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>JAM54D40-435-LB-BF</t>
+          <t>AVW-34HJFH, H-Series, HISENSE</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2024-04</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>1 072</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>1 111</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>1 159</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>1 207</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Panels</t>
+          <t>Air Conditions</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>HISENSE</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>JAM54D40-425-GB-BF</t>
+          <t>AVS-07HJFTDD (New DC-TD panel), HISENSE</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>936</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Panels</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>JASOLAR</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>JAM54D40-420-MB-BF</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Panels</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>JASOLAR</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>JAM54S30-415-MR-BF</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Panels</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>TRINA</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>TRINA_TSM-650_DEG21C.20</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>594</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2024-04</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>250</t>
         </is>
       </c>
     </row>

--- a/static/generated_files/pierre/price_list_with_selling_prices.xlsx
+++ b/static/generated_files/pierre/price_list_with_selling_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N265"/>
+  <dimension ref="A1:N268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,24 +513,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CANADIAN</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Canadian CS6R-440T n type topcon</t>
+          <t>JAM54D40-425-GB-BF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>425</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -540,7 +540,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>Double glass</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -560,12 +560,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>936</t>
         </is>
       </c>
     </row>
@@ -582,52 +582,44 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>JAM54D41-435-GB-ALL BLACK</t>
+          <t>JAM54S30-415-MR-BF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>756</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2024-06</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>415</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Full Black</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>1 722</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>30</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>1 134</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -654,19 +646,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>JAM54S30-405-MR-BF</t>
+          <t>JAM54S30-420-GR-BF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>349</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>420</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -713,61 +705,49 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>JAM54S30-410-MR-SF</t>
+          <t>AVANCIS SKALA 125W</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>410</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Silver Frame</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Glass foil</t>
-        </is>
-      </c>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>664</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>1 587</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>38</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -777,61 +757,53 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>JAM54S30-415-GR-BF</t>
+          <t>AVANCIS SKALA 120W 3002 Gold</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Glass foil</t>
-        </is>
-      </c>
+          <t>Frameless Full Gold (3002)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>664</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>1 587</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>38</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -841,61 +813,49 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>JAM54S30-415-MR-BF</t>
+          <t>AVANCIS SKALA 115W</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>415</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Glass foil</t>
-        </is>
-      </c>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>664</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>1 587</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>38</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -905,69 +865,49 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>JAM54S30-420-GR-BF</t>
+          <t>AVANCIS SKALA 100W 1202 RED</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2024-02</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>420</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Glass foil</t>
-        </is>
-      </c>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>664</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>1 587</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>38</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -982,7 +922,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>AVANCIS POWERMAX SKALA 130W Green 4002</t>
+          <t>AVANCIS POWERMAX SKALA 150W B901</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -994,14 +934,10 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>130</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Frameless Full Green (4002)</t>
-        </is>
-      </c>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
@@ -1038,27 +974,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>JAM54D40-445-LB-BF</t>
+          <t>JAM54S30-415-GR-BF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2024-04</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>415</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1068,17 +996,17 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1 762</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1105,61 +1033,53 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>JAM54S30-425-LR-BF</t>
+          <t>AVANCIS POWERMAX SKALA 130W Green 4002</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>130</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Glass foil</t>
-        </is>
-      </c>
+          <t>Frameless Full Green (4002)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>686</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>1 595</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>45</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1169,49 +1089,69 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AVANCIS</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AVANCIS SKALA 115W</t>
+          <t>JAM54S31-405-MR-ALLBLACK</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2024-02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Full Black</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1 587</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1226,24 +1166,24 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>JAM60S20-385-MR-BF</t>
+          <t>JAM54S31-410-MR-ALLBLACK</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>119</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>410</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>Full Black</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1253,27 +1193,27 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1 052</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1 769</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>36</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>936</t>
         </is>
       </c>
     </row>
@@ -1285,61 +1225,53 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>JAM60S20-385-MR-BF [NEW]</t>
+          <t>AVANCIS SKALA 135W 7002 Dark Blue</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Glass foil</t>
-        </is>
-      </c>
+          <t>Frameless Full Dark blue (7002)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1 052</t>
+          <t>664</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>1 769</t>
+          <t>1 587</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>38</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>806</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1354,24 +1286,16 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>JAM60S20-385-MR-SF</t>
+          <t>JAM60S20-385-MR-BF [NEW]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>310</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2024-05</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
           <t>385</t>
@@ -1379,7 +1303,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1399,7 +1323,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1426,12 +1350,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>JAM66S30-505-MR BF</t>
+          <t>JAM60S20-385-MR-SF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>310</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1446,12 +1370,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>385</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1461,27 +1385,27 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>1 052</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2 093</t>
+          <t>1 769</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>806</t>
         </is>
       </c>
     </row>
@@ -1498,54 +1422,62 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>JAM72D30-540-MB-SF</t>
+          <t>JAM66S30-505-MR BF</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2024-05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>505</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1 052</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2 117</t>
+          <t>2 093</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>36</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>792</t>
         </is>
       </c>
     </row>
@@ -1562,27 +1494,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>JAM72D30-545-MB-SF</t>
+          <t>JAM72D30-540-MB-SF</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>482</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2024-04</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>540</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1634,32 +1558,24 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>JAM54S31-405-MR-ALLBLACK</t>
+          <t>JAM54S30-425-LR-BF</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>582</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2024-02</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>425</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Full Black</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1706,19 +1622,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>JAM72D30-550-MB-SF</t>
+          <t>JAM72D30-545-MB-SF</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>879</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2024-04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>545</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1753,7 +1677,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>620</t>
         </is>
       </c>
     </row>
@@ -1770,37 +1694,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>JAM54D40-435-LB-BF</t>
+          <t>JAM54S30-410-MR-SF</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>684</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2024-06</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>410</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1842,24 +1758,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>JAM54D40-420-MB-BF</t>
+          <t>JAM54D41-440-LB-ALL BLACK</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>440</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>Full Black</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1874,7 +1798,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>1 762</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1906,7 +1830,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AVANCIS SKALA 120W 3002 Gold</t>
+          <t>AVANCIS SKALA 135W G001 Anthracite</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1918,12 +1842,12 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Frameless Full Gold (3002)</t>
+          <t>Frameless Full Dark blue (7002)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -1962,7 +1886,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AVANCIS SKALA 125W</t>
+          <t>AVANCIS SKALA 140W</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1974,7 +1898,7 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -2014,7 +1938,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>AVANCIS SKALA 130W</t>
+          <t>AVANCIS SKALA 70W G001</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2026,10 +1950,14 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>130</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Frameless Full Anthracite (G001)</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
@@ -2066,7 +1994,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>AVANCIS SKALA 130W B</t>
+          <t>AVANCIS SKALA B001 140W Black</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2078,7 +2006,7 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -2118,7 +2046,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>AVANCIS SKALA 135W 7002 Dark Blue</t>
+          <t>AVANCIS SKALA G002 130W Grey</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2130,12 +2058,12 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>130</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Frameless Full Dark blue (7002)</t>
+          <t>Frameless Full Grey (G002)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -2169,53 +2097,69 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AVANCIS</t>
+          <t>CANADIAN</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>AVANCIS SKALA 135W G001 Anthracite</t>
+          <t>CS6L-460MS_BF</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>460</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Frameless Full Dark blue (7002)</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>1 587</t>
+          <t>1 903</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr"/>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>840</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2225,49 +2169,61 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AVANCIS</t>
+          <t>CANADIAN</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>AVANCIS SKALA 140W</t>
+          <t>CS6R-410 SF</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>1 587</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>910</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2282,19 +2238,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>JAM54D40-425-GB-BF</t>
+          <t>JAM54S30-405-MR-BF</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>405</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2304,7 +2260,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2341,53 +2297,61 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AVANCIS</t>
+          <t>CANADIAN</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>AVANCIS SKALA 70W G001</t>
+          <t>CS6R-415 BF</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>415</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Frameless Full Anthracite (G001)</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>1 587</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>910</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2397,53 +2361,61 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AVANCIS</t>
+          <t>CANADIAN</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>AVANCIS SKALA G002 130W Grey</t>
+          <t>CS7N-665MS</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1 798</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>665</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Frameless Full Grey (G002)</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>1 303</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>1 587</t>
+          <t>2 384</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>35</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr"/>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>558</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2458,27 +2430,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CS6L-460MS_BF</t>
+          <t>Canadian CS6R-440T n type topcon</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>322</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>2024-06</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>440</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2498,7 +2462,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>1 903</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2513,7 +2477,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>910</t>
         </is>
       </c>
     </row>
@@ -2525,34 +2489,34 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CANADIAN</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CS6R-410 SF</t>
+          <t>JAM54D40-420-MB-BF</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>132</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>420</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>Double glass</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2572,12 +2536,12 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>936</t>
         </is>
       </c>
     </row>
@@ -2589,61 +2553,49 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CANADIAN</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CS6R-415 BF</t>
+          <t>AVANCIS SKALA 130W</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>415</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Glass foil</t>
-        </is>
-      </c>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>664</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>1 587</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>38</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>910</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2653,59 +2605,67 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CANADIAN</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CS7L-595MS</t>
+          <t>JAM54D40-435-LB-BF</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>435</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>Double glass</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>1 303</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>2 172</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>36</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>936</t>
         </is>
       </c>
     </row>
@@ -2717,59 +2677,67 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CANADIAN</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CS7N-665MS</t>
+          <t>JAM54D40-445-LB-BF</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1 798</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2024-04</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>445</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>Double glass</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>1 303</t>
+          <t>1 762</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2 384</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>36</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>936</t>
         </is>
       </c>
     </row>
@@ -2781,49 +2749,69 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AVANCIS</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>AVANCIS POWERMAX SKALA 150W B901</t>
+          <t>JAM54D41-435-GB-ALL BLACK</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+          <t>756</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Full Black</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Double glass</t>
+        </is>
+      </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>1 595</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr"/>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2833,49 +2821,61 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AVANCIS</t>
+          <t>CANADIAN</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AVANCIS SKALA B001 140W Black</t>
+          <t>CS7L-595MS</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>1 303</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>1 587</t>
+          <t>2 172</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>35</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr"/>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2890,19 +2890,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>JAM72D40-575-MB</t>
+          <t>JAM72D30-550-MB-SF</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>879</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>550</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2912,27 +2912,27 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Bifacial</t>
+          <t>Double glass</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>1 052</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>2 278</t>
+          <t>2 117</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>JAM54S31-410-MR-ALLBLACK</t>
+          <t>JAM60S20-385-MR-BF</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>96</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>385</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Full Black</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2981,27 +2981,27 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>1 052</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>1 769</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>806</t>
         </is>
       </c>
     </row>
@@ -3018,27 +3018,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>JAM72D40-585-MB</t>
+          <t>JAM72D40-580-GB</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>496</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>2024-05</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>9 708</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>580</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3090,24 +3082,24 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>LR5-66HPH-505M</t>
+          <t>LR5-66HTH-525W</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>559</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>525</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3154,19 +3146,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>LR5-66HTH-525W</t>
+          <t>LR5-66HTH-530M</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>106</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>530</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3218,24 +3210,24 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>LR5-66HTH-530M</t>
+          <t>LR5-72HBD-550M</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>119</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>550</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3250,22 +3242,22 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>2 094</t>
+          <t>2 278</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>36</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>720</t>
         </is>
       </c>
     </row>
@@ -3282,19 +3274,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>LR5-72HBD-550M</t>
+          <t>LR5-72HTH-570M</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>570</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3319,17 +3311,17 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>620</t>
         </is>
       </c>
     </row>
@@ -3346,19 +3338,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>LR5-72HTH-570M</t>
+          <t>LR5-72HTH-575M</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+          <t>749</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2024-03</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>575</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3405,32 +3405,24 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>LONGI</t>
+          <t>SUNMAN</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>LR5-72HTH-575M</t>
+          <t>SUNMAN_SMF430F</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>749</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>2024-03</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>430</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -3440,32 +3432,32 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>Flexible</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>1 080</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>2 278</t>
+          <t>2 054</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>66</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>1 320</t>
         </is>
       </c>
     </row>
@@ -3477,29 +3469,29 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SUNMAN</t>
+          <t>SUNPORT</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SUNMAN_SMF430F</t>
+          <t>SUNPORT SPP375QHES-B</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>375</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>Full Black</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3509,27 +3501,27 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>1 080</t>
+          <t>1 040</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>2 054</t>
+          <t>1 840</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.500</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>46</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>1 320</t>
+          <t>1 104</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3538,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SUNPORT SPP375QHES-B</t>
+          <t>SUNPORT SPP380QHES</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3558,12 +3550,12 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>380</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Full Black</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3605,59 +3597,59 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SUNPORT</t>
+          <t>TONGWEI</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SUNPORT SPP380QHES</t>
+          <t>TW-400W- MAP-108-H-FULL BLACK</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>400</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>Full Black</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Flexible</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>1 040</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>1 840</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2.500</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>36</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>1 104</t>
+          <t>936</t>
         </is>
       </c>
     </row>
@@ -3674,24 +3666,24 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>TW-400W- MAP-108-H-FULL BLACK</t>
+          <t>TW-410W MAP-108-H-S BF</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>612</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>410</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Full Black</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3733,29 +3725,29 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TONGWEI</t>
+          <t>TRINA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>TW-410W MAP-108-H-S BF</t>
+          <t>TRINA_DE09R.05_415W_Full black</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>420</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>415</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>Full Black</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3770,7 +3762,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>1 762</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3797,32 +3789,24 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>LONGI</t>
+          <t>TRINA</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>LR5-54HTH-440M</t>
+          <t>TRINA_DE09R.08W_415W</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1 500</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>2024-07</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>415</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3842,7 +3826,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>1 762</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3874,24 +3858,24 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>TRINA_DE09R.05_415W_Full black</t>
+          <t>TRINA_DE09R.08_425W</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>425</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Full Black</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3938,19 +3922,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>TRINA_DE09R.08_425W</t>
+          <t>TRINA_DE09R.08_430W</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>430</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -4002,7 +3986,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>TRINA_DE09R.08_430W</t>
+          <t>TRINA_DEG09R.08_420W_DUALGLASS</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -4014,7 +3998,7 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>420</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -4024,7 +4008,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>Double glass</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -4066,19 +4050,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>TRINA_DEG09R.08_420W_DUALGLASS</t>
+          <t>TRINA_NEG9R.28 n type 445 I-Topcon DualGlass</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
+          <t>1 677</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>445</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -4130,12 +4122,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>TRINA_NEG9R.28 n type 445 I-Topcon DualGlass</t>
+          <t>TRINA_NEG9R.28 n type 450 I-Topcon DualGlass</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1 677</t>
+          <t>675</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4145,12 +4137,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>450</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -4202,27 +4194,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>TRINA_NEG9R.28 n type 450 I-Topcon DualGlass</t>
+          <t>TRINA_NEG9R.28_430W_DUALGLASS</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>675</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>2024-06</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>430</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -4274,19 +4258,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>TRINA_NEG9R.28_430W_DUALGLASS</t>
+          <t>TRINA_NEG9R.28_435W_DUALGLASS</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>435</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -4338,12 +4322,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>TRINA_NEG9R.28_435W_DUALGLASS</t>
+          <t>TRINA_NEG9RC.27 n type 435 I-Topcon Bifacial DualG</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1 625</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -4360,7 +4344,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>Bifacial</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4402,54 +4386,54 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>TRINA_NEG9RC.27 n type 435 I-Topcon Bifacial DualG</t>
+          <t>TRINA_TSM-550DE19</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1 625</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>550</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Bifacial</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>1 096</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>1 762</t>
+          <t>2 384</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>620</t>
         </is>
       </c>
     </row>
@@ -4466,19 +4450,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>TRINA_TSM-550DE19</t>
+          <t>TRINA_TSM-555DE19</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>555</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -4530,34 +4514,34 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>TRINA_TSM-555DE19</t>
+          <t>TRINA_TSM-650_DEG21C.20</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>66</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>650</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>Bifacial</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>1 096</t>
+          <t>1 303</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4567,17 +4551,17 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>594</t>
         </is>
       </c>
     </row>
@@ -4589,59 +4573,59 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TRINA</t>
+          <t>LONGI</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>TRINA_TSM-650_DEG21C.20</t>
+          <t>LR5-66HPH-505M</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>505</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Bifacial</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>1 303</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>2 384</t>
+          <t>2 094</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>682</t>
         </is>
       </c>
     </row>
@@ -4653,34 +4637,34 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TRINA</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>TRINA_DE09R.08W_415W</t>
+          <t>JAM72D40-575-MB</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>67</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>575</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>Bifacial</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4690,7 +4674,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>1 762</t>
+          <t>2 278</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4705,7 +4689,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>720</t>
         </is>
       </c>
     </row>
@@ -4717,34 +4701,34 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>LONGI</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>JAM72D40-580-MB</t>
+          <t>LR5-54HTH-435M</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>805</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>435</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Bifacial</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4754,7 +4738,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>2 278</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4769,7 +4753,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>936</t>
         </is>
       </c>
     </row>
@@ -4786,12 +4770,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>LR5-54HTH-435M</t>
+          <t>LR5-54HTB-435M</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>877</t>
+          <t>92</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -4803,7 +4787,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>Full Black</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4845,49 +4829,61 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>AVANCIS</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>AVANCIS SKALA 100W 1202 RED</t>
+          <t>JAM72D40-580-MB</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Bifacial</t>
+        </is>
+      </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>1 587</t>
+          <t>2 278</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr"/>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4902,19 +4898,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>JAM72S20-460-MR</t>
+          <t>JAM72D40-585-MB</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2024-05</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>585</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -4924,32 +4928,32 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>Bifacial</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>1 052</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>2 112</t>
+          <t>2 278</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>36</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>720</t>
         </is>
       </c>
     </row>
@@ -4966,19 +4970,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>JAM72S30-545-MR-SF 35MM</t>
+          <t>JAM72S20-460-MR</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>460</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -4993,12 +4997,12 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>1 052</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>2 279</t>
+          <t>2 112</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -5011,7 +5015,11 @@
           <t>31</t>
         </is>
       </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5026,12 +5034,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>JAM72S30-545/MR</t>
+          <t>JAM72S30-545-MR-SF 35MM</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -5063,7 +5071,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -5071,11 +5079,7 @@
           <t>31</t>
         </is>
       </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>620</t>
-        </is>
-      </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5090,19 +5094,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>JAM78S30-585/MR</t>
+          <t>JAM72S30-545/MR</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>261</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>545</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -5122,12 +5126,12 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>2 465</t>
+          <t>2 279</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -5137,7 +5141,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>620</t>
         </is>
       </c>
     </row>
@@ -5149,37 +5153,29 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>JINKO</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>JINKO JKM445N-54HL4 Black Frame / TIGER NEO N-TYPE</t>
+          <t>JAM78S30-585/MR</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>664</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>2024-06</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>585</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5189,27 +5185,27 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>1 762</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>2 465</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>496</t>
         </is>
       </c>
     </row>
@@ -5226,24 +5222,32 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>JINKO Tiger Neo 72HL4-(V) 575W</t>
+          <t>JINKO JKM445N-54HL4 Black Frame / TIGER NEO N-TYPE</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>445</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5253,27 +5257,27 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
+          <t>1 762</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
           <t>1 134</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>2 278</t>
-        </is>
-      </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>36</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>936</t>
         </is>
       </c>
     </row>
@@ -5285,29 +5289,29 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>LONGI</t>
+          <t>JINKO</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>LR5-54HIH-410M</t>
+          <t>JINKO Tiger Neo 72HL4-(V) 575W</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>56</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>575</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5322,22 +5326,22 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>2 278</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>620</t>
         </is>
       </c>
     </row>
@@ -5354,19 +5358,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>LR5-54HPH-415M</t>
+          <t>LR5-54HIH-410M</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>410</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -5418,24 +5422,24 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>LR5-54HTB-435M</t>
+          <t>LR5-54HTH-420M</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>420</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Full Black</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -5477,109 +5481,113 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>LONGI</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>LR5-54HTH-420M</t>
+          <t>AVANCIS SKALA 130W B</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>420</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>Glass foil</t>
-        </is>
-      </c>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>664</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>1 587</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>38</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Inverters</t>
+          <t>Panels</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SUNGROW</t>
+          <t>LONGI</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SG350HX-V115</t>
+          <t>LR5-54HPH-415M</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>61</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>1 136</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr"/>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5594,12 +5602,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SG250HX</t>
+          <t>SG15.0RT-V115</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>427</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -5609,17 +5617,17 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>480</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>1 051</t>
+          <t>370</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>195</t>
         </is>
       </c>
       <c r="M82" t="inlineStr"/>
@@ -5633,17 +5641,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>HUAWEI</t>
+          <t>SUNGROW</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SUN2000-17KTL-M2</t>
+          <t>SG250HX</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -5653,17 +5661,17 @@
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>660</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>1 051</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>363</t>
         </is>
       </c>
       <c r="M83" t="inlineStr"/>
@@ -5682,12 +5690,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SG15.0RT-V115</t>
+          <t>SG350HX-V115</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -5697,20 +5705,24 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>870</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>1 136</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>195</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr"/>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
@@ -5775,7 +5787,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -5863,7 +5875,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -5941,17 +5953,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>HUAWEI</t>
+          <t>SUNGROW</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Dummy SUN2000-10KTL-M1 HUAWEI</t>
+          <t>SG10.0RT-V115</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>643</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -5961,17 +5973,17 @@
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>480</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>370</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>195</t>
         </is>
       </c>
       <c r="M90" t="inlineStr"/>
@@ -5985,17 +5997,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SUNGROW</t>
+          <t>HUAWEI</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>SG10.0RT-V115</t>
+          <t>SUN2000-10KTL-M1</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -6005,17 +6017,17 @@
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>470</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>525</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>166</t>
         </is>
       </c>
       <c r="M91" t="inlineStr"/>
@@ -6034,12 +6046,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SUN2000-10KTL-M1</t>
+          <t>SUN2000-12KTL-M5</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -6049,17 +6061,17 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>460</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>546</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>228</t>
         </is>
       </c>
       <c r="M92" t="inlineStr"/>
@@ -6073,17 +6085,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>HUAWEI</t>
+          <t>SUNGROW</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SUN2000-12KTL-M5</t>
+          <t>SG17.0RT-V11</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -6093,17 +6105,17 @@
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>480</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>370</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>195</t>
         </is>
       </c>
       <c r="M93" t="inlineStr"/>
@@ -6117,17 +6129,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>HUAWEI</t>
+          <t>SUNGROW</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SUN2000-15KTL-M5</t>
+          <t>SG17.0RT-V115</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -6137,17 +6149,17 @@
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>480</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>370</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>195</t>
         </is>
       </c>
       <c r="M94" t="inlineStr"/>
@@ -6161,17 +6173,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>SUNGROW</t>
+          <t>HUAWEI</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>SG17.0RT-V11</t>
+          <t>SUN2000L-2KTL-L1</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -6181,17 +6193,17 @@
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>365</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>365</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>156</t>
         </is>
       </c>
       <c r="M95" t="inlineStr"/>
@@ -6205,17 +6217,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>SUNGROW</t>
+          <t>HUAWEI</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>SG17.0RT-V115</t>
+          <t>SUN2000-17KTL-M2</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -6225,17 +6237,17 @@
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>470</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>525</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>262</t>
         </is>
       </c>
       <c r="M96" t="inlineStr"/>
@@ -6249,12 +6261,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>HUAWEI</t>
+          <t>SOLINTEG</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SUN2000L-2KTL-L1</t>
+          <t>MHT-25K-100</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -6269,17 +6281,17 @@
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>620</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>800</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>300</t>
         </is>
       </c>
       <c r="M97" t="inlineStr"/>
@@ -6293,17 +6305,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>HUAWEI</t>
+          <t>SOLINTEG</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SUN2000-3KTL-L1</t>
+          <t>MHT-20K-40, with LAN</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>71</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -6313,17 +6325,17 @@
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>418</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>534</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>210</t>
         </is>
       </c>
       <c r="M98" t="inlineStr"/>
@@ -6342,12 +6354,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>MHT-25K-100</t>
+          <t>MHT-10K-25</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -6357,17 +6369,17 @@
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>418</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>534</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>210</t>
         </is>
       </c>
       <c r="M99" t="inlineStr"/>
@@ -6381,17 +6393,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SOLINTEG</t>
+          <t>SOLAX</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>MHT-20K-40, with LAN</t>
+          <t>X3-HYBRID-10KW</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -6401,17 +6413,17 @@
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>503</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>503</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>199</t>
         </is>
       </c>
       <c r="M100" t="inlineStr"/>
@@ -6425,17 +6437,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SOLINTEG</t>
+          <t>SOFAR</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>MHT-10K-25</t>
+          <t>SOFAR 50KTLX-G3 X2 + AC BOX</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -6445,17 +6457,17 @@
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>585</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>480</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>220</t>
         </is>
       </c>
       <c r="M101" t="inlineStr"/>
@@ -6469,17 +6481,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>SOLAX</t>
+          <t>SOFAR</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>X3-HYBRID-10KW</t>
+          <t>SOFAR 50KTLX-G3</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>260</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -6489,17 +6501,17 @@
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>585</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>480</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>220</t>
         </is>
       </c>
       <c r="M102" t="inlineStr"/>
@@ -6513,17 +6525,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>SOFAR</t>
+          <t>SERMATEC</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>SOFAR 50KTLX-G3 X2 + AC BOX</t>
+          <t>Sermatec 10kW Three phase hybrid inverter - SMT-10</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>246</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -6533,17 +6545,17 @@
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>550</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>548</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>188</t>
         </is>
       </c>
       <c r="M103" t="inlineStr"/>
@@ -6557,17 +6569,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SOFAR</t>
+          <t>SUNGROW</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>SOFAR 50KTLX-G3</t>
+          <t>SG40CX-V112</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -6577,17 +6589,17 @@
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>645</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>782</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>310</t>
         </is>
       </c>
       <c r="M104" t="inlineStr"/>
@@ -6601,17 +6613,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>SERMATEC</t>
+          <t>HUAWEI</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Sermatec 10kW Three phase hybrid inverter - SMT-10</t>
+          <t>SUN2000-15KTL-M5</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -6621,17 +6633,17 @@
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>460</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>546</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>228</t>
         </is>
       </c>
       <c r="M105" t="inlineStr"/>
@@ -6650,12 +6662,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>SUN2000-25KTL-M5</t>
+          <t>SUN2000-8KTL-M1</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -6675,7 +6687,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>146.500</t>
         </is>
       </c>
       <c r="M106" t="inlineStr"/>
@@ -6689,17 +6701,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>SUNGROW</t>
+          <t>HUAWEI</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>SG40CX-V112</t>
+          <t>SUN2000-6KTL-L1</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -6709,17 +6721,17 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>365</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>782</t>
+          <t>365</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>156</t>
         </is>
       </c>
       <c r="M107" t="inlineStr"/>
@@ -6738,12 +6750,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>SUN2000-6KTL-M1</t>
+          <t>SUN2000-5KTL-M1</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -6782,12 +6794,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SUN2000-6KTL-L1</t>
+          <t>SUN2000-5KTL-L1</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -6826,12 +6838,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>SUN2000-5KTL-M1</t>
+          <t>SUN2000-50KTL-M3</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -6841,17 +6853,17 @@
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>530</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>640</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>146.500</t>
+          <t>270</t>
         </is>
       </c>
       <c r="M110" t="inlineStr"/>
@@ -6870,12 +6882,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>SUN2000-5KTL-L1</t>
+          <t>SUN2000-4KTL-M1</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -6885,17 +6897,17 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>470</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>525</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>146.500</t>
         </is>
       </c>
       <c r="M111" t="inlineStr"/>
@@ -6914,12 +6926,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>SUN2000-50KTL-M3</t>
+          <t>SUN2000-40KTL-M3</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -6958,12 +6970,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SUN2000-4KTL-M1</t>
+          <t>SUN2000-3KTL-L1</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -6973,17 +6985,17 @@
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>365</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>365</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>146.500</t>
+          <t>140</t>
         </is>
       </c>
       <c r="M113" t="inlineStr"/>
@@ -7002,12 +7014,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SUN2000-40KTL-M3</t>
+          <t>SUN2000-25KTL-M5</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -7017,17 +7029,17 @@
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>470</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>525</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>262</t>
         </is>
       </c>
       <c r="M114" t="inlineStr"/>
@@ -7046,12 +7058,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>SUN2000-8KTL-M1</t>
+          <t>SUN2000-6KTL-M1</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -7095,7 +7107,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>332</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -7134,12 +7146,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>SUN2000-100KTL-M2</t>
+          <t>Dummy SUN2000-10KTL-M1 HUAWEI</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -7149,17 +7161,17 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>470</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>1 035</t>
+          <t>525</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>166</t>
         </is>
       </c>
       <c r="M117" t="inlineStr"/>
@@ -7173,17 +7185,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SUNGROW</t>
+          <t>SOLINTEG</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SH8.0RT</t>
+          <t>MHT-40K-100</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -7193,17 +7205,17 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>620</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>800</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>300</t>
         </is>
       </c>
       <c r="M118" t="inlineStr"/>
@@ -7217,17 +7229,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>SOLINTEG</t>
+          <t>SUNGROW</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>MHT-40K-100</t>
+          <t>SH8.0RT</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -7237,17 +7249,17 @@
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>540</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>480</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>170</t>
         </is>
       </c>
       <c r="M119" t="inlineStr"/>
@@ -7403,7 +7415,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>957</t>
+          <t>969</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -7491,7 +7503,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>370</t>
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
@@ -7535,7 +7547,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E126" t="inlineStr"/>
@@ -7579,7 +7591,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -7618,12 +7630,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Soluna_10K_HV_LFP</t>
+          <t>SOLUNA_LIB_5KWH_BATT.</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
@@ -7633,17 +7645,17 @@
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t>332.400</t>
+          <t>595</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>86.200</t>
+          <t>438</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>232.400</t>
+          <t>165</t>
         </is>
       </c>
       <c r="M128" t="inlineStr"/>
@@ -7662,12 +7674,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>EBS-5150-BAS</t>
+          <t>EBS-5150-BMS</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
@@ -7689,17 +7701,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>SOLUNA</t>
+          <t>SOLAX</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Soluna_S4_EU-A36</t>
+          <t>T-BAT 5.8 HV11550</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -7709,17 +7721,17 @@
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>193</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>1 230</t>
+          <t>474</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>647</t>
         </is>
       </c>
       <c r="M130" t="inlineStr"/>
@@ -7733,17 +7745,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>SUNGROW</t>
+          <t>SOLUNA</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Sungrow SBR Base + BMS</t>
+          <t>Soluna_10K_HV_LFP</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106</t>
         </is>
       </c>
       <c r="E131" t="inlineStr"/>
@@ -7751,9 +7763,21 @@
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>332.400</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>86.200</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>232.400</t>
+        </is>
+      </c>
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="inlineStr"/>
     </row>
@@ -7765,17 +7789,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>SUNGROW</t>
+          <t>SOLUNA</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Sungrow SBR Battery module 3,2 kWh</t>
+          <t>Soluna_S4_EU-A36</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
@@ -7783,9 +7807,21 @@
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>1 230</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr"/>
     </row>
@@ -7797,17 +7833,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>SOLAX</t>
+          <t>SUNGROW</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>T-BAT 5.8 HV11550_repaired</t>
+          <t>Sungrow SBR Base + BMS</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E133" t="inlineStr"/>
@@ -7815,21 +7851,9 @@
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>193</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>474</t>
-        </is>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>647</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr"/>
     </row>
@@ -7841,17 +7865,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>SOLAX</t>
+          <t>SUNGROW</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>T-BAT 5.8 HV11550</t>
+          <t>Sungrow SBR Battery module 3,2 kWh</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E134" t="inlineStr"/>
@@ -7859,21 +7883,9 @@
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>193</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>474</t>
-        </is>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>647</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr"/>
     </row>
@@ -7885,17 +7897,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>SOLUNA</t>
+          <t>SOFAR</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>SOLUNA_LIB_5KWH_BATT.</t>
+          <t>BTS_5K_BATTERY_MODULE_5,12</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E135" t="inlineStr"/>
@@ -7905,17 +7917,17 @@
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>170</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>708</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>420</t>
         </is>
       </c>
       <c r="M135" t="inlineStr"/>
@@ -7929,17 +7941,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>SOFAR</t>
+          <t>SOLINTEG</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>BTS_5K_BATTERY_MODULE_5,12</t>
+          <t>EBS-5150-BAS</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E136" t="inlineStr"/>
@@ -7947,21 +7959,9 @@
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>708</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>420</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr"/>
     </row>
@@ -7973,17 +7973,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>HUAWEI</t>
+          <t>SOFAR</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Huawei LUNA2000-7-E1 Battery Module 6.9kWh</t>
+          <t>BTS 5K-BDU</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E137" t="inlineStr"/>
@@ -7993,17 +7993,17 @@
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>170</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>708</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>200</t>
         </is>
       </c>
       <c r="M137" t="inlineStr"/>
@@ -8142,12 +8142,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>BYD_HVM/HVS_BCU+BASE</t>
+          <t>BYD_HVM/HVS_BCU+BASE_Dummy</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E141" t="inlineStr"/>
@@ -8174,12 +8174,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>BYD_BATTERY_HVM</t>
+          <t>BYD_HVM/HVS_BCU+BASE</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E142" t="inlineStr"/>
@@ -8201,17 +8201,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>SOFAR</t>
+          <t>BYD</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>BTS 5K-BDU</t>
+          <t>BYD_BATTERY_HVS</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E143" t="inlineStr"/>
@@ -8219,21 +8219,9 @@
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>708</t>
-        </is>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr"/>
     </row>
@@ -8245,17 +8233,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>SOLINTEG</t>
+          <t>BYD</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>EBS-5150-BMS</t>
+          <t>BYD_BATTERY_HVM</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E144" t="inlineStr"/>
@@ -8272,22 +8260,22 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>EV Chargers</t>
+          <t>Batteries</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>SUNGROW</t>
+          <t>HUAWEI</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Sungrow_11kW AC charger AC011E-01</t>
+          <t>Huawei LUNA2000-7-E1 Battery Module 6.9kWh</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E145" t="inlineStr"/>
@@ -8297,17 +8285,17 @@
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>590</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>510</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>255</t>
         </is>
       </c>
       <c r="M145" t="inlineStr"/>
@@ -8316,22 +8304,22 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>EV Chargers</t>
+          <t>Batteries</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ZBENY</t>
+          <t>SOLAX</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>BENY EV Charger BCP-AT1S-L</t>
+          <t>T-BAT 5.8 HV11550_repaired</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E146" t="inlineStr"/>
@@ -8341,17 +8329,17 @@
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>193</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>474</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>647</t>
         </is>
       </c>
       <c r="M146" t="inlineStr"/>
@@ -8365,12 +8353,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>WALLBOX</t>
+          <t>SUNGROW</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Wallbox Power Meter - EM340</t>
+          <t>Sungrow_11kW AC charger AC011E-01</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -8385,17 +8373,17 @@
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>310</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>205</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>92</t>
         </is>
       </c>
       <c r="M147" t="inlineStr"/>
@@ -8414,12 +8402,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Wallbox Power Meter - EM112</t>
+          <t>Wallbox EV charger: Pulsar Plus -7,4kW/5m/T2/White</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E148" t="inlineStr"/>
@@ -8429,17 +8417,17 @@
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>163</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>166</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>88</t>
         </is>
       </c>
       <c r="M148" t="inlineStr"/>
@@ -8458,12 +8446,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Wallbox EV charger:Copper SB CPB1 (22kW / SOCKET /</t>
+          <t>Wallbox Power Meter - EM112</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E149" t="inlineStr"/>
@@ -8473,17 +8461,17 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>63</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>35</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>90</t>
         </is>
       </c>
       <c r="M149" t="inlineStr"/>
@@ -8502,12 +8490,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Wallbox EV charger: Pulsar Plus -7,4kW/5m/T2/White</t>
+          <t>Wallbox Power Meter - EM340</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E150" t="inlineStr"/>
@@ -8517,17 +8505,17 @@
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>90</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>54</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>63</t>
         </is>
       </c>
       <c r="M150" t="inlineStr"/>
@@ -8541,17 +8529,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>WALLBOX</t>
+          <t>ZBENY</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Wallbox EV charger: Pulsar Plus -7,4kW/5m/T2/Black</t>
+          <t>BENY EV Charger BCP-A1N-L</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E151" t="inlineStr"/>
@@ -8561,17 +8549,17 @@
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>380</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>169</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>151</t>
         </is>
       </c>
       <c r="M151" t="inlineStr"/>
@@ -8585,17 +8573,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>WALLBOX</t>
+          <t>ZBENY</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Wallbox EV charger: Pulsar Plus - 22kW/5m/T2/_BLK</t>
+          <t>BENY EV Charger BCP-AT1S-L</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E152" t="inlineStr"/>
@@ -8605,17 +8593,17 @@
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>380</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>169</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>151</t>
         </is>
       </c>
       <c r="M152" t="inlineStr"/>
@@ -8634,12 +8622,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Wallbox EV charger: Pulsar - 7,4kW / 5m / T2 / whi</t>
+          <t>Wallbox EV charger: Pulsar Plus -7,4kW/5m/T2/Black</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E153" t="inlineStr"/>
@@ -8659,7 +8647,7 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>88</t>
         </is>
       </c>
       <c r="M153" t="inlineStr"/>
@@ -8678,12 +8666,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Wallbox Cable holder - metallic / white</t>
+          <t>Wallbox EV charger: Pulsar Plus - 22kW/5m/T2/_BLK</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E154" t="inlineStr"/>
@@ -8691,9 +8679,21 @@
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr"/>
     </row>
@@ -8705,17 +8705,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>HUAWEI</t>
+          <t>WALLBOX</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>HUAWEI AC_CHARGER-1PH 7KW</t>
+          <t>Wallbox EV charger: Pulsar - 7,4kW / 5m / T2 / whi</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E155" t="inlineStr"/>
@@ -8725,17 +8725,17 @@
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>163</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>166</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>82</t>
         </is>
       </c>
       <c r="M155" t="inlineStr"/>
@@ -8754,12 +8754,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Wallbox Cable holder - metallic / black</t>
+          <t>Wallbox Cable holder - metallic / white</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E156" t="inlineStr"/>
@@ -8781,17 +8781,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ZBENY</t>
+          <t>HUAWEI</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>BENY EV Charger BCP-A1N-L</t>
+          <t>HUAWEI AC_CHARGER-1PH 7KW</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E157" t="inlineStr"/>
@@ -8801,17 +8801,17 @@
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>145</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>180</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>335</t>
         </is>
       </c>
       <c r="M157" t="inlineStr"/>
@@ -8820,22 +8820,22 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Accessories</t>
+          <t>EV Chargers</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>HISENSE</t>
+          <t>WALLBOX</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>HC-T-01M Ambient temperature sensor</t>
+          <t>Wallbox Cable holder - metallic / black</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E158" t="inlineStr"/>
@@ -8852,22 +8852,22 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Accessories</t>
+          <t>EV Chargers</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>TIGO</t>
+          <t>WALLBOX</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>TS4-A-2F,25A (Isc), 1400W Rapid shutdown</t>
+          <t>Wallbox EV charger:Copper SB CPB1 (22kW / SOCKET /</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>3 431</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E159" t="inlineStr"/>
@@ -8877,17 +8877,17 @@
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr">
         <is>
-          <t>139.700</t>
+          <t>192</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>138.400</t>
+          <t>260</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>22.900</t>
+          <t>113</t>
         </is>
       </c>
       <c r="M159" t="inlineStr"/>
@@ -8901,17 +8901,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>SUNGROW</t>
+          <t>HISENSE</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>DTSU666 SUNGROW</t>
+          <t>HC-T-01M Ambient temperature sensor</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E160" t="inlineStr"/>
@@ -8919,21 +8919,9 @@
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>65.500</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr"/>
       <c r="N160" t="inlineStr"/>
     </row>
@@ -8945,17 +8933,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>SUNGROW</t>
+          <t>TIGO</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Logger 4000</t>
+          <t>Tigo Access Point (TAP)</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E161" t="inlineStr"/>
@@ -8965,17 +8953,17 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>130</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>126.200</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>26.800</t>
         </is>
       </c>
       <c r="M161" t="inlineStr"/>
@@ -8994,12 +8982,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>S100 SINGLE PHASE ENERGY METTER</t>
+          <t>Logger 4000</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E162" t="inlineStr"/>
@@ -9009,17 +8997,17 @@
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>440</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>224</t>
         </is>
       </c>
       <c r="M162" t="inlineStr"/>
@@ -9038,12 +9026,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>SGEYEM4</t>
+          <t>S100 SINGLE PHASE ENERGY METTER</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E163" t="inlineStr"/>
@@ -9053,17 +9041,17 @@
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>117</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>18</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>65</t>
         </is>
       </c>
       <c r="M163" t="inlineStr"/>
@@ -9082,12 +9070,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>SUNGROW WiNet-S</t>
+          <t>SGEYEM4</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>111</t>
         </is>
       </c>
       <c r="E164" t="inlineStr"/>
@@ -9097,7 +9085,7 @@
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>130</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -9126,12 +9114,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Sungrow AC Plate for SG125CX-P2 (5-holes)</t>
+          <t>SUNGROW WiNet-S</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>80</t>
         </is>
       </c>
       <c r="E165" t="inlineStr"/>
@@ -9139,9 +9127,21 @@
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
       <c r="M165" t="inlineStr"/>
       <c r="N165" t="inlineStr"/>
     </row>
@@ -9153,17 +9153,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>SUNMAN</t>
+          <t>SUNGROW</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>MC4 CONNECTOR SUNMAN</t>
+          <t>Sungrow AC Plate for SG125CX-P2 (5-holes)</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E166" t="inlineStr"/>
@@ -9190,12 +9190,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>SUNMAN CS MATERIAL</t>
+          <t>MC4 CONNECTOR SUNMAN</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>4 533</t>
+          <t>356</t>
         </is>
       </c>
       <c r="E167" t="inlineStr"/>
@@ -9217,17 +9217,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>STAUBLI</t>
+          <t>SUNMAN</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Konektor male MC4</t>
+          <t>SUNMAN CS MATERIAL</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>4 533</t>
         </is>
       </c>
       <c r="E168" t="inlineStr"/>
@@ -9281,17 +9281,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>SUNMAN</t>
+          <t>SUNGROW</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SUNMAN TBS ButyI Tape 656</t>
+          <t>DTSU666 SUNGROW</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E170" t="inlineStr"/>
@@ -9299,9 +9299,21 @@
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>65.500</t>
+        </is>
+      </c>
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr"/>
     </row>
@@ -9318,12 +9330,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>SUNMAN Tonsan 1527 glue</t>
+          <t>SUNMAN Seal It 380 Multifast</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>829</t>
         </is>
       </c>
       <c r="E171" t="inlineStr"/>
@@ -9345,17 +9357,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TIGO</t>
+          <t>SUNMAN</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>TS4-A-2F, 20A (Isc), 1000W Rapid shutdown</t>
+          <t>SUNMAN Tonsan 1527 glue</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>996</t>
+          <t>636</t>
         </is>
       </c>
       <c r="E172" t="inlineStr"/>
@@ -9363,21 +9375,9 @@
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>139.700</t>
-        </is>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>138.400</t>
-        </is>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>22.900</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="inlineStr"/>
       <c r="N172" t="inlineStr"/>
     </row>
@@ -9389,17 +9389,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>HUAWEI</t>
+          <t>TIGO</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Backup Box-B1(HUAWEI LUNA2000-Back-up system 3-pha</t>
+          <t>TS4-A-2F, 20A (Isc), 1000W Rapid shutdown</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>996</t>
         </is>
       </c>
       <c r="E173" t="inlineStr"/>
@@ -9409,17 +9409,17 @@
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>139.700</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>138.400</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>22.900</t>
         </is>
       </c>
       <c r="M173" t="inlineStr"/>
@@ -9438,12 +9438,12 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Tigo Access Point (TAP)</t>
+          <t>TS4-A-2F,25A (Isc), 1400W Rapid shutdown</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3 431</t>
         </is>
       </c>
       <c r="E174" t="inlineStr"/>
@@ -9453,17 +9453,17 @@
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>139.700</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>126.200</t>
+          <t>138.400</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>26.800</t>
+          <t>22.900</t>
         </is>
       </c>
       <c r="M174" t="inlineStr"/>
@@ -9477,17 +9477,17 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TIGO</t>
+          <t>HUAWEI</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Tigo CCA kit</t>
+          <t>DTSU666-H 250A</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E175" t="inlineStr"/>
@@ -9497,17 +9497,17 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>278.400</t>
+          <t>65.500</t>
         </is>
       </c>
       <c r="M175" t="inlineStr"/>
@@ -9526,12 +9526,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Transmitter 120/240VAC PS, Outdoor Enclosure kit</t>
+          <t>Tigo CCA kit</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>214</t>
         </is>
       </c>
       <c r="E176" t="inlineStr"/>
@@ -9541,17 +9541,17 @@
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>115</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>126.200</t>
+          <t>203</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>26.800</t>
+          <t>278.400</t>
         </is>
       </c>
       <c r="M176" t="inlineStr"/>
@@ -9570,12 +9570,12 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Transmitter,Dual Core, Pure Signal RSS , Din  Rail</t>
+          <t>Transmitter 120/240VAC PS, Outdoor Enclosure kit</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>79</t>
         </is>
       </c>
       <c r="E177" t="inlineStr"/>
@@ -9609,17 +9609,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>SUNMAN</t>
+          <t>TIGO</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>SUNMAN Seal It 380 Multifast</t>
+          <t>Transmitter,Dual Core, Pure Signal RSS , Din  Rail</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>829</t>
+          <t>139</t>
         </is>
       </c>
       <c r="E178" t="inlineStr"/>
@@ -9627,9 +9627,21 @@
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>126.200</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>26.800</t>
+        </is>
+      </c>
       <c r="M178" t="inlineStr"/>
       <c r="N178" t="inlineStr"/>
     </row>
@@ -9641,17 +9653,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>HTU</t>
+          <t>HUAWEI</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>HTU LED screen  Model:P2.0</t>
+          <t>Backup Box-B1(HUAWEI LUNA2000-Back-up system 3-pha</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E179" t="inlineStr"/>
@@ -9661,17 +9673,17 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>350</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>400</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>130</t>
         </is>
       </c>
       <c r="M179" t="inlineStr"/>
@@ -9685,17 +9697,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>STAUBLI</t>
+          <t>SUNMAN</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Konektor female MC4</t>
+          <t>SUNMAN TBS ButyI Tape 656</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E180" t="inlineStr"/>
@@ -9717,17 +9729,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>SOLUNA</t>
+          <t>HTU</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Soluna HV PARRALLEL BOX</t>
+          <t>HTU LED screen  Model:P2.0</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E181" t="inlineStr"/>
@@ -9737,17 +9749,17 @@
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr">
         <is>
-          <t>232.400</t>
+          <t>320</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>332.400</t>
+          <t>520</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>86.200</t>
+          <t>358</t>
         </is>
       </c>
       <c r="M181" t="inlineStr"/>
@@ -9761,17 +9773,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>HUAWEI</t>
+          <t>STAUBLI</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>LUNA2000 Wall Mounting Bracket</t>
+          <t>Konektor male MC4</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E182" t="inlineStr"/>
@@ -9793,17 +9805,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>HUAWEI</t>
+          <t>SOLUNA</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>SDongleA-03-EU - Huawei Smart Dongle-4G</t>
+          <t>Soluna Liberty Battery rack</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E183" t="inlineStr"/>
@@ -9813,17 +9825,17 @@
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>1 340</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>600</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>650</t>
         </is>
       </c>
       <c r="M183" t="inlineStr"/>
@@ -9842,12 +9854,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>SMARTLOGGER3000A03</t>
+          <t>SDongleA-03-EU - Huawei Smart Dongle-4G</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E184" t="inlineStr"/>
@@ -9857,17 +9869,17 @@
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>130</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>33</t>
         </is>
       </c>
       <c r="M184" t="inlineStr"/>
@@ -9886,12 +9898,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>SUN2000-450W-P2 Smart PV Optimizer</t>
+          <t>SMARTLOGGER3000A03</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E185" t="inlineStr"/>
@@ -9901,17 +9913,17 @@
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>160</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>225</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>44</t>
         </is>
       </c>
       <c r="M185" t="inlineStr"/>
@@ -9930,12 +9942,12 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>SUN2000-600W-P Smart PV Optimizer</t>
+          <t>SUN2000-450W-P2 Smart PV Optimizer</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>923</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E186" t="inlineStr"/>
@@ -9974,12 +9986,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>dummy LUNA 2000-5-EO ( Luna Huawei Battery exstens</t>
+          <t>SUN2000-600W-P Smart PV Optimizer</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>909</t>
         </is>
       </c>
       <c r="E187" t="inlineStr"/>
@@ -9987,9 +9999,21 @@
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
       <c r="M187" t="inlineStr"/>
       <c r="N187" t="inlineStr"/>
     </row>
@@ -10001,17 +10025,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>SERMATEC</t>
+          <t>HUAWEI</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Sermatec Parallel Box SMT-PB-10K</t>
+          <t>dummy LUNA 2000-5-EO ( Luna Huawei Battery exstens</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E188" t="inlineStr"/>
@@ -10019,21 +10043,9 @@
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>350</t>
-        </is>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>570</t>
-        </is>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="inlineStr"/>
     </row>
@@ -10045,17 +10057,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>SMARTFLOWER</t>
+          <t>SERMATEC</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Smartflower Spare Parts Kit Large</t>
+          <t>Sermatec Parallel Box SMT-PB-10K</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E189" t="inlineStr"/>
@@ -10063,9 +10075,21 @@
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="inlineStr"/>
     </row>
@@ -10077,17 +10101,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>SOLUNA</t>
+          <t>SMARTFLOWER</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Soluna Liberty Battery rack</t>
+          <t>Smartflower Spare Parts Kit Large</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E190" t="inlineStr"/>
@@ -10095,21 +10119,9 @@
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr">
-        <is>
-          <t>1 340</t>
-        </is>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>650</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="inlineStr"/>
       <c r="N190" t="inlineStr"/>
     </row>
@@ -10153,17 +10165,17 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>SOLAR_EDGE</t>
+          <t>STAUBLI</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>SolarEdge optimizer S1000-1GMXMBT cables 2x1.3</t>
+          <t>Konektor female MC4</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E192" t="inlineStr"/>
@@ -10171,21 +10183,9 @@
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>129</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="inlineStr"/>
       <c r="N192" t="inlineStr"/>
     </row>
@@ -10197,17 +10197,17 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>SOLAX</t>
+          <t>SOLAR_EDGE</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>DTSU666-D SOLAX</t>
+          <t>SolarEdge optimizer S1000-1GM4MBT, cable 4.8m</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E193" t="inlineStr"/>
@@ -10217,17 +10217,17 @@
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>165</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>52</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>65.500</t>
+          <t>129</t>
         </is>
       </c>
       <c r="M193" t="inlineStr"/>
@@ -10246,7 +10246,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>POCKET WFI DONGLE</t>
+          <t>DTSU666-D SOLAX</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -10261,17 +10261,17 @@
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>65.500</t>
         </is>
       </c>
       <c r="M194" t="inlineStr"/>
@@ -10285,17 +10285,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>SOLINTEG</t>
+          <t>SOLAX</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>DONGLE (WiFi2.0) SOLINTEG</t>
+          <t>POCKET WFI DONGLE</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E195" t="inlineStr"/>
@@ -10305,17 +10305,17 @@
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>96</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>46</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>29</t>
         </is>
       </c>
       <c r="M195" t="inlineStr"/>
@@ -10334,12 +10334,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Solinteg LAN Module Integ R</t>
+          <t>DONGLE (WiFi2.0) SOLINTEG</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>266</t>
         </is>
       </c>
       <c r="E196" t="inlineStr"/>
@@ -10378,12 +10378,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Solinteg RMK-5A Three phase smart meter</t>
+          <t>Solinteg LAN Module Integ R</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E197" t="inlineStr"/>
@@ -10393,17 +10393,17 @@
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>51</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>123</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>35</t>
         </is>
       </c>
       <c r="M197" t="inlineStr"/>
@@ -10422,12 +10422,12 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Solinteg RMK-MA 120 three phase smart meter</t>
+          <t>Solinteg RMK-5A Three phase smart meter</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E198" t="inlineStr"/>
@@ -10461,17 +10461,17 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>SOLUNA</t>
+          <t>SOLINTEG</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Soluna Battery Monitoring Wi-Fi Communication Stic</t>
+          <t>Solinteg RMK-MA 120 three phase smart meter</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E199" t="inlineStr"/>
@@ -10481,17 +10481,17 @@
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>85</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>75</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>54</t>
         </is>
       </c>
       <c r="M199" t="inlineStr"/>
@@ -10505,17 +10505,17 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>SOLAR_EDGE</t>
+          <t>SOLUNA</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>SolarEdge optimizer S1000-1GM4MBT, cable 4.8m</t>
+          <t>Soluna Battery Monitoring Wi-Fi Communication Stic</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>334</t>
         </is>
       </c>
       <c r="E200" t="inlineStr"/>
@@ -10525,17 +10525,17 @@
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>130</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>48</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>36</t>
         </is>
       </c>
       <c r="M200" t="inlineStr"/>
@@ -10549,17 +10549,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>HUAWEI</t>
+          <t>SOLUNA</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>HUAWEI Wi-Fi Dongle</t>
+          <t>Soluna HV PARRALLEL BOX</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E201" t="inlineStr"/>
@@ -10569,17 +10569,17 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>232.400</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>571.400</t>
+          <t>332.400</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>264.100</t>
+          <t>86.200</t>
         </is>
       </c>
       <c r="M201" t="inlineStr"/>
@@ -10593,17 +10593,17 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>HUAWEI</t>
+          <t>SOLAR_EDGE</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>DTSU666-H 250A</t>
+          <t>SolarEdge optimizer S1000-1GMXMBT cables 2x1.3</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>502</t>
         </is>
       </c>
       <c r="E202" t="inlineStr"/>
@@ -10613,17 +10613,17 @@
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>165</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>52</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>65.500</t>
+          <t>129</t>
         </is>
       </c>
       <c r="M202" t="inlineStr"/>
@@ -10637,17 +10637,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>HISENSE</t>
+          <t>HUAWEI</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>HCCS-H64H2C1M HI-MIT (ATW) Wifi Module</t>
+          <t>LUNA2000 Wall Mounting Bracket</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E203" t="inlineStr"/>
@@ -10669,17 +10669,17 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>HISENSE</t>
+          <t>HUAWEI</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>HCT-S01E Temperature sensor for installation</t>
+          <t>HUAWEI Wi-Fi Dongle</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E204" t="inlineStr"/>
@@ -10687,9 +10687,21 @@
       <c r="G204" t="inlineStr"/>
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>571.400</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>264.100</t>
+        </is>
+      </c>
       <c r="M204" t="inlineStr"/>
       <c r="N204" t="inlineStr"/>
     </row>
@@ -10706,12 +10718,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>HESE-3W25A Threeway directional valve</t>
+          <t>HCCS-H64H2C1M HI-MIT (ATW) Wifi Module</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E205" t="inlineStr"/>
@@ -10738,12 +10750,12 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>HSXE-VC04 Room thermostat</t>
+          <t>HCT-S01E Temperature sensor for installation</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E206" t="inlineStr"/>
@@ -10770,12 +10782,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>HTS-E1000A1 Water Temperature sensor</t>
+          <t>HESE-3W25A Threeway directional valve</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E207" t="inlineStr"/>
@@ -10792,22 +10804,22 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Constructions</t>
+          <t>Accessories</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ANTAI</t>
+          <t>HISENSE</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>ANTAI_B0601-JDP20-01 Earthing Clip</t>
+          <t>HSXE-VC04 Room thermostat</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>14 191</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E208" t="inlineStr"/>
@@ -10824,22 +10836,22 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Constructions</t>
+          <t>Accessories</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ANTAI</t>
+          <t>HISENSE</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>ANTAI_B0601-JDP29-01 Earthing Clip</t>
+          <t>HTS-E1000A1 Water Temperature sensor</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>2 860</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E209" t="inlineStr"/>
@@ -10866,12 +10878,12 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Antai_Tile Roof Hook 3 W30 H185</t>
+          <t>ANTAI_B0601-JDP20-01 Earthing Clip</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>14 191</t>
         </is>
       </c>
       <c r="E210" t="inlineStr"/>
@@ -10898,12 +10910,12 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Antai_Tile Roof Hook L=140 W30</t>
+          <t>ANTAI_B0601-JDP29-01 Earthing Clip</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>954</t>
+          <t>2 860</t>
         </is>
       </c>
       <c r="E211" t="inlineStr"/>
@@ -10930,12 +10942,12 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Nanocarport_Y COMMERCIAL BASIC PACKAGE 3x16 5 cars</t>
+          <t>Antai_Tile Roof Hook 3 W30 H185</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>300</t>
         </is>
       </c>
       <c r="E212" t="inlineStr"/>
@@ -10962,12 +10974,12 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Nanocarport_Y COMMERCIAL EXTENSION PKG. 3x3 1car</t>
+          <t>Antai_Tile Roof Hook L=140 W30</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>954</t>
         </is>
       </c>
       <c r="E213" t="inlineStr"/>
@@ -10994,12 +11006,12 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Nanocarport_Y Design Waterproof Carport 3x10 4cars</t>
+          <t>Nanocarport_Y COMMERCIAL BASIC PACKAGE 3x16 5 cars</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E214" t="inlineStr"/>
@@ -11026,12 +11038,12 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Nanoracking Argo PV SET_1_12142022 13.85(H)x8.5(V)</t>
+          <t>Nanocarport_Y COMMERCIAL EXTENSION PKG. 3x3 1car</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E215" t="inlineStr"/>
@@ -11058,12 +11070,12 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Nanocarport_Y Design Waterproof Carport 3x5 2 cars</t>
+          <t>Nanocarport_Y Design Waterproof Carport 3x10 4cars</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E216" t="inlineStr"/>
@@ -11090,12 +11102,12 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>ANTAI_WIND DEFLECTOR</t>
+          <t>Nanoracking Argo PV SET_1_12142022 13.85(H)x8.5(V)</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E217" t="inlineStr"/>
@@ -11122,7 +11134,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Nanoracking Argo PV SET_2_12142022 27.6(H)x8.5(V)</t>
+          <t>Nanocarport_Y Design Waterproof Carport 3x5 2 cars</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -11154,12 +11166,12 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Nanoracking Argo PV SET_3_12142022 34.45(H)x16.3 V</t>
+          <t>ANTAI_WIND DEFLECTOR</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>167</t>
         </is>
       </c>
       <c r="E219" t="inlineStr"/>
@@ -11181,17 +11193,17 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>MOUNTING</t>
+          <t>ANTAI</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>roof protection mat alu 370x150mm</t>
+          <t>Nanoracking Argo PV SET_2_12142022 27.6(H)x8.5(V)</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>2 450</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E220" t="inlineStr"/>
@@ -11218,12 +11230,12 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Nanocarport_Y Design Waterproof Carport 3x3 1 car</t>
+          <t>Nanoracking Argo PV SET_3_12142022 34.45(H)x16.3 V</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E221" t="inlineStr"/>
@@ -11245,17 +11257,17 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>ANTAI</t>
+          <t>MOUNTING</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>ANTAI_RAIL_CAP B0603-NW024DG-01</t>
+          <t>roof protection mat alu 370x150mm</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>2 450</t>
         </is>
       </c>
       <c r="E222" t="inlineStr"/>
@@ -11282,12 +11294,12 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Antai_Tile Roof Hook 2 W30 H70</t>
+          <t>Nanocarport_Y Design Waterproof Carport 3x3 1 car</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E223" t="inlineStr"/>
@@ -11314,12 +11326,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>ANTAI_FENCE_SOLAR sample</t>
+          <t>ANTAI_RAIL_CAP B0603-NW024DG-01</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>120</t>
         </is>
       </c>
       <c r="E224" t="inlineStr"/>
@@ -11346,12 +11358,12 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>ANTAI_BEAM_CAP B0603-TYN258DG-01</t>
+          <t>Antai_Tile Roof Hook 2 W30 H70</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>500</t>
         </is>
       </c>
       <c r="E225" t="inlineStr"/>
@@ -11378,12 +11390,12 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>ANTAI_A0104-TYN417-01 Rail</t>
+          <t>ANTAI_FENCE_SOLAR sample</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E226" t="inlineStr"/>
@@ -11392,11 +11404,7 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>4 700</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
       <c r="M226" t="inlineStr"/>
       <c r="N226" t="inlineStr"/>
@@ -11414,12 +11422,12 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>ANTAI_A0102-TYN424-01 Beam</t>
+          <t>ANTAI_BEAM_CAP B0603-TYN258DG-01</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>70</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
@@ -11428,11 +11436,7 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>5 300</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
       <c r="M227" t="inlineStr"/>
       <c r="N227" t="inlineStr"/>
@@ -11450,12 +11454,12 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>ANTAI_C0101-TYN427-01 Connector</t>
+          <t>ANTAI_A0104-TYN417-01 Rail</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>854</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
@@ -11464,7 +11468,11 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>4 700</t>
+        </is>
+      </c>
       <c r="L228" t="inlineStr"/>
       <c r="M228" t="inlineStr"/>
       <c r="N228" t="inlineStr"/>
@@ -11482,12 +11490,12 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>ANTAI_C0102-TYN423-01 Front Base</t>
+          <t>ANTAI_A0102-TYN424-01 Beam</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>577</t>
         </is>
       </c>
       <c r="E229" t="inlineStr"/>
@@ -11496,7 +11504,11 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>5 300</t>
+        </is>
+      </c>
       <c r="L229" t="inlineStr"/>
       <c r="M229" t="inlineStr"/>
       <c r="N229" t="inlineStr"/>
@@ -11514,7 +11526,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>ANTAI_C0102-TYN426-01 Rear Base</t>
+          <t>ANTAI_C0101-TYN427-01 Connector</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -11546,12 +11558,12 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>ANTAI_JBS0005600 Self-Tapping Screw</t>
+          <t>ANTAI_C0102-TYN423-01 Front Base</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E231" t="inlineStr"/>
@@ -11578,12 +11590,12 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>ANTAI_C0103-TYN436-03 Mid Clamp (30mm Panel)</t>
+          <t>ANTAI_C0102-TYN426-01 Rear Base</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>6 674</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E232" t="inlineStr"/>
@@ -11610,12 +11622,12 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>ANTAI_C0104-TYN433-01 End Clamp (30mm Panel)</t>
+          <t>ANTAI_JBS0005600 Self-Tapping Screw</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>1 415</t>
+          <t>700</t>
         </is>
       </c>
       <c r="E233" t="inlineStr"/>
@@ -11642,12 +11654,12 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>ANTAI_C0103-GN003-27 Mid Clamp (35/40mm Panel)</t>
+          <t>ANTAI_C0103-TYN436-03 Mid Clamp (30mm Panel)</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>8 419</t>
+          <t>6 574</t>
         </is>
       </c>
       <c r="E234" t="inlineStr"/>
@@ -11674,12 +11686,12 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>ANTAI_C0104-TYN434-03 End Clamp (35/40mm Panel)</t>
+          <t>ANTAI_C0104-TYN433-01 End Clamp (30mm Panel)</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>3 273</t>
+          <t>1 315</t>
         </is>
       </c>
       <c r="E235" t="inlineStr"/>
@@ -11706,12 +11718,12 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>ANTAI_C0106-TYN418-01 Rail Splice</t>
+          <t>ANTAI_C0103-GN003-27 Mid Clamp (35/40mm Panel)</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>8 419</t>
         </is>
       </c>
       <c r="E236" t="inlineStr"/>
@@ -11738,12 +11750,12 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>ANTAI_C0106-TYN425-01 Beam Splice</t>
+          <t>ANTAI_C0104-TYN434-03 End Clamp (35/40mm Panel)</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>3 273</t>
         </is>
       </c>
       <c r="E237" t="inlineStr"/>
@@ -11770,12 +11782,12 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>ANTAI_C0401-AU001-03 Tile Roof Hook</t>
+          <t>ANTAI_C0106-TYN418-01 Rail Splice</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>7 658</t>
+          <t>256</t>
         </is>
       </c>
       <c r="E238" t="inlineStr"/>
@@ -11802,12 +11814,12 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>ANTAI_C0402-CJ025-29 L Feet Kit with M10X250 Hange</t>
+          <t>ANTAI_C0106-TYN425-01 Beam Splice</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>830</t>
+          <t>218</t>
         </is>
       </c>
       <c r="E239" t="inlineStr"/>
@@ -11834,12 +11846,12 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>ANTAI_C0402-CJ025-73 L Feet Kit with M10X300 Hange</t>
+          <t>ANTAI_C0401-AU001-03 Tile Roof Hook</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>1 000</t>
+          <t>7 658</t>
         </is>
       </c>
       <c r="E240" t="inlineStr"/>
@@ -11866,12 +11878,12 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>ANTAI_C0402-CJ092-01 TYN 450 Mini Rail for Trapezb</t>
+          <t>ANTAI_C0402-CJ025-29 L Feet Kit with M10X250 Hange</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>4 188</t>
+          <t>830</t>
         </is>
       </c>
       <c r="E241" t="inlineStr"/>
@@ -11898,12 +11910,12 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>ANTAI_C0501-TYN16-04 Grounding Lug</t>
+          <t>ANTAI_C0402-CJ025-73 L Feet Kit with M10X300 Hange</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>1 294</t>
+          <t>1 000</t>
         </is>
       </c>
       <c r="E242" t="inlineStr"/>
@@ -11930,12 +11942,12 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>ANTAI_C0104-TYN434-01 End Clamp (35/40mm Panel)</t>
+          <t>ANTAI_C0402-CJ092-01 TYN 450 Mini Rail for Trapezb</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>2 011</t>
+          <t>4 188</t>
         </is>
       </c>
       <c r="E243" t="inlineStr"/>
@@ -11962,12 +11974,12 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>ANTAI_A0301-F35x35x2-01 Pole</t>
+          <t>ANTAI_C0501-TYN16-04 Grounding Lug</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1 294</t>
         </is>
       </c>
       <c r="E244" t="inlineStr"/>
@@ -11976,11 +11988,7 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
       <c r="M244" t="inlineStr"/>
       <c r="N244" t="inlineStr"/>
@@ -11988,22 +11996,22 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Portable Power Station</t>
+          <t>Constructions</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>BLUETTI</t>
+          <t>ANTAI</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>AC300 POWER STATION BLUETTI</t>
+          <t>ANTAI_C0104-TYN434-01 End Clamp (35/40mm Panel)</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2 011</t>
         </is>
       </c>
       <c r="E245" t="inlineStr"/>
@@ -12011,43 +12019,31 @@
       <c r="G245" t="inlineStr"/>
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>520</t>
-        </is>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>358</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="inlineStr"/>
       <c r="N245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Portable Power Station</t>
+          <t>Constructions</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>BLUETTI</t>
+          <t>ANTAI</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>B230 BATTERY BLUETTI</t>
+          <t>ANTAI_A0301-F35x35x2-01 Pole</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E246" t="inlineStr"/>
@@ -12055,21 +12051,13 @@
       <c r="G246" t="inlineStr"/>
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr">
-        <is>
-          <t>280</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
-          <t>420</t>
-        </is>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>227.500</t>
-        </is>
-      </c>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="inlineStr"/>
       <c r="N246" t="inlineStr"/>
     </row>
@@ -12086,12 +12074,12 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>B300 BATTERY BLUETTI</t>
+          <t>AC300 POWER STATION BLUETTI</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E247" t="inlineStr"/>
@@ -12111,7 +12099,7 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>358</t>
         </is>
       </c>
       <c r="M247" t="inlineStr"/>
@@ -12130,12 +12118,12 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>EP500PRO MOVABLE POWER STATION BLUETTI</t>
+          <t>B230 BATTERY BLUETTI</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E248" t="inlineStr"/>
@@ -12145,17 +12133,17 @@
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>280</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>420</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>227.500</t>
         </is>
       </c>
       <c r="M248" t="inlineStr"/>
@@ -12174,36 +12162,32 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>PV350 SOLAR PANEL 350W BLUETTI</t>
+          <t>B300 BATTERY BLUETTI</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr">
-        <is>
-          <t>350</t>
-        </is>
-      </c>
+      <c r="G249" t="inlineStr"/>
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>320</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>905</t>
+          <t>520</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>266</t>
         </is>
       </c>
       <c r="M249" t="inlineStr"/>
@@ -12212,22 +12196,22 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Heat Pumps</t>
+          <t>Portable Power Station</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>HISENSE</t>
+          <t>BLUETTI</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>AHZ-080HCDS1 Heat Pump Outdoor Unit</t>
+          <t>EP500PRO MOVABLE POWER STATION BLUETTI</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E250" t="inlineStr"/>
@@ -12235,41 +12219,69 @@
       <c r="G250" t="inlineStr"/>
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
       <c r="M250" t="inlineStr"/>
       <c r="N250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Heat Pumps</t>
+          <t>Portable Power Station</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>HISENSE</t>
+          <t>BLUETTI</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>AHM-060HCDSAA Heat pump Internal Unit 1 pc 0%</t>
+          <t>PV350 SOLAR PANEL 350W BLUETTI</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr"/>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>905</t>
+        </is>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
       <c r="M251" t="inlineStr"/>
       <c r="N251" t="inlineStr"/>
     </row>
@@ -12286,7 +12298,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>AHM-080HCDSAA Heat Pump Internal Unit</t>
+          <t>AHZ-080HCDS1 Heat Pump Outdoor Unit</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -12318,7 +12330,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>AHM-100HEDSAA Heat Pump Internal Unit</t>
+          <t>AHM-060HCDSAA Heat pump Internal Unit 1 pc 0%</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -12350,7 +12362,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>AHM-140HEDSAA Heat Pump Internal Unit</t>
+          <t>AHM-080HCDSAA Heat Pump Internal Unit</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -12382,12 +12394,12 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>AHM-160HEDSAA Heat Pump Internal Unit</t>
+          <t>AHM-100HEDSAA Heat Pump Internal Unit</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E255" t="inlineStr"/>
@@ -12414,7 +12426,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>AHW-060HCDS1 Heat Pump Outdoor Unit</t>
+          <t>AHM-140HEDSAA Heat Pump Internal Unit</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -12446,12 +12458,12 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>AHW-080HCDS1 Heat Pump Outdoor Unit</t>
+          <t>AHM-160HEDSAA Heat Pump Internal Unit</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E257" t="inlineStr"/>
@@ -12478,7 +12490,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>AHW-100HEDS1 Heat Pump Outdoor Unit</t>
+          <t>AHW-060HCDS1 Heat Pump Outdoor Unit</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -12510,7 +12522,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>AHW-140HEDS1 Heat Pump Outdoor Unit</t>
+          <t>AHW-080HCDS1 Heat Pump Outdoor Unit</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -12542,12 +12554,12 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>AHW-160HEDS1 Heat Pump Outdoor Unit</t>
+          <t>AHW-100HEDS1 Heat Pump Outdoor Unit</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E260" t="inlineStr"/>
@@ -12564,22 +12576,22 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>SmartFlowers</t>
+          <t>Heat Pumps</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>SMARTFLOWER</t>
+          <t>HISENSE</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>SmartFlower 50Hz 3-Phase - Amber colour</t>
+          <t>AHW-140HEDS1 Heat Pump Outdoor Unit</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E261" t="inlineStr"/>
@@ -12587,43 +12599,31 @@
       <c r="G261" t="inlineStr"/>
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr">
-        <is>
-          <t>1 194</t>
-        </is>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>1 651</t>
-        </is>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>2 692</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="inlineStr"/>
       <c r="N261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>SmartFlowers</t>
+          <t>Heat Pumps</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>SMARTFLOWER</t>
+          <t>HISENSE</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>SmartFlower 50Hz 3-Phase - Porcelain colour</t>
+          <t>AHW-160HEDS1 Heat Pump Outdoor Unit</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E262" t="inlineStr"/>
@@ -12631,21 +12631,9 @@
       <c r="G262" t="inlineStr"/>
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr">
-        <is>
-          <t>1 194</t>
-        </is>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>1 651</t>
-        </is>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>2 692</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="inlineStr"/>
       <c r="N262" t="inlineStr"/>
     </row>
@@ -12662,12 +12650,12 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>SmartFlower 50Hz SINGLE Phase - PEARL colour</t>
+          <t>SmartFlower 50Hz 3-Phase - Amber colour</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E263" t="inlineStr"/>
@@ -12706,12 +12694,12 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>SmartFlower 50Hz SINGLE Phase - PORCELAIN colour</t>
+          <t>SmartFlower 50Hz 3-Phase - Porcelain colour</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E264" t="inlineStr"/>
@@ -12740,22 +12728,22 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Cables</t>
+          <t>SmartFlowers</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t> </t>
+          <t>SMARTFLOWER</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>solarni kabel H1Z2Z2-K 1x6 cerna</t>
+          <t>SmartFlower 50Hz SINGLE Phase - PEARL colour</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>1 500</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E265" t="inlineStr"/>
@@ -12763,11 +12751,131 @@
       <c r="G265" t="inlineStr"/>
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>1 194</t>
+        </is>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>1 651</t>
+        </is>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>2 692</t>
+        </is>
+      </c>
       <c r="M265" t="inlineStr"/>
       <c r="N265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>SmartFlowers</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>SMARTFLOWER</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>SmartFlower 50Hz SINGLE Phase - PORCELAIN colour</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr"/>
+      <c r="F266" t="inlineStr"/>
+      <c r="G266" t="inlineStr"/>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>1 194</t>
+        </is>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>1 651</t>
+        </is>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>2 692</t>
+        </is>
+      </c>
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Cables</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>solarni kabel H1Z2Z2-K 1x6 cerna</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>4 000</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr"/>
+      <c r="F267" t="inlineStr"/>
+      <c r="G267" t="inlineStr"/>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Cables</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>solarni kabel H1Z2Z2-K 1x6 cervena</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr"/>
+      <c r="F268" t="inlineStr"/>
+      <c r="G268" t="inlineStr"/>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
